--- a/biology/Histoire de la zoologie et de la botanique/Alphonse_Guichenot/Alphonse_Guichenot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alphonse_Guichenot/Alphonse_Guichenot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Alphonse Guichenot est un zoologiste français, né le 31 juillet 1809 à Paris et mort le 17 février 1876 à Cluny.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un jardinier du Muséum national d'histoire naturelle, il y suit l’enseignement à partir de 1828. En 1833, il devient préparateur à la chaire des reptiles et des poissons.
 Il participe en 1839 et jusqu’en 1842, à une mission en Algérie. De 1856 à sa retraite, en 1872, il occupe la place d’aide-naturaliste.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1866 : Notice sur un nouveau genre de la famille des Cottoides, du muséum de Paris. Mém. Soc. Imp. Sci. Nat. Cherbourg v. 12 (Ser. 2, v. 2) : 253-256, Pl. 9.
 1869 : Notice sur quelques poissons inédits de Madagascar et de la Chine. Nouv. Arch. Mus. Hist. Nat. Paris, v. 5 (fasc. 3) : 193-206, Pl. 12.</t>
